--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_18-12.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_18-12.xlsx
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PENDULINE كرلي كريم</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -1741,17 +1744,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>7.0499999999999998</v>
+        <v>130</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.050000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1767,17 +1770,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>221.16</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1799,11 +1802,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1825,11 +1828,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>160.55000000000001</v>
+        <v>58</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1845,17 +1848,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>13</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1863,7 +1866,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1871,17 +1874,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1897,17 +1900,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1923,17 +1926,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>115.2</v>
+        <v>20</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1949,17 +1952,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>28.710000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1981,11 +1984,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>250</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2001,17 +2004,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2027,17 +2030,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2045,7 +2048,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2053,17 +2056,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2071,7 +2074,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2079,17 +2082,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2097,7 +2100,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2105,7 +2108,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2123,7 +2126,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2131,13 +2134,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2149,7 +2152,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2157,13 +2160,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2183,13 +2186,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2201,7 +2204,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2209,17 +2212,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2227,7 +2230,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2235,17 +2238,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2253,7 +2256,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2261,17 +2264,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2287,17 +2290,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2313,17 +2316,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2331,7 +2334,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2339,17 +2342,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2357,7 +2360,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2365,13 +2368,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2383,7 +2386,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2391,17 +2394,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2417,51 +2420,77 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="K64" s="11">
-        <v>5150.8400000000001</v>
-      </c>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
         <v>93</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c t="s" r="F65" s="13">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
+        <v>81</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>20</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="26.25" customHeight="1">
+      <c r="K65" s="11">
+        <v>5280.8400000000001</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="12">
         <v>94</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="14"/>
-      <c t="s" r="I65" s="15">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c t="s" r="F66" s="13">
         <v>95</v>
       </c>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
+      <c t="s" r="I66" s="15">
+        <v>96</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="194">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2649,10 +2678,13 @@
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="I65:N65"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:N66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
